--- a/Documents/Product_&_Sprint_1Backlog_Team(2).xlsx
+++ b/Documents/Product_&_Sprint_1Backlog_Team(2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
   <si>
     <t>Week 1</t>
   </si>
@@ -337,13 +337,13 @@
     <t>Sharayu</t>
   </si>
   <si>
+    <t>completed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task 3: Create the DB design </t>
   </si>
   <si>
     <t>Venkat</t>
-  </si>
-  <si>
-    <t>Not started</t>
   </si>
   <si>
     <t>Task 4: Create the user login</t>
@@ -1521,7 +1521,7 @@
   </sheetPr>
   <dimension ref="B2:D999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5422,8 +5422,8 @@
   </sheetPr>
   <dimension ref="A1:Y988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" customHeight="1"/>
@@ -5554,7 +5554,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -5580,16 +5580,16 @@
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9">
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -5624,7 +5624,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5659,7 +5659,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -5718,9 +5718,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -5749,9 +5747,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -5780,9 +5776,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5811,9 +5805,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -5842,9 +5834,7 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
